--- a/MasterLegalData.xlsx
+++ b/MasterLegalData.xlsx
@@ -6,13 +6,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmat1/Desktop/1-Legal Work/Worldwide Equipment/App for State Laws/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmat1/Desktop/1-Legal Work/Worldwide Equipment/App for State Laws/WE-Warranty-Advisor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE52F13B-8C47-6645-AC07-5A0C6002C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{E5DCDA05-A33A-CD4A-8E5F-10B7FDE252C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="F0YeSYNtVfHQP2qtdAuBFBjDCWTq7++BjUij6Jwl9i1dY9sVfuq5SDjOKxyx/BoJPpMEYjqa+SK83NbrntUH5g==" workbookSaltValue="LMJRMUT2760LDxeV1vOTcw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2020" windowWidth="34560" windowHeight="19340" activeTab="2" xr2:uid="{7D92F4FC-D859-104A-85C7-10F1EA81ABDB}"/>
+    <workbookView xWindow="0" yWindow="2020" windowWidth="34560" windowHeight="19340" activeTab="4" xr2:uid="{7D92F4FC-D859-104A-85C7-10F1EA81ABDB}"/>
   </bookViews>
   <sheets>
     <sheet name="_Topics" sheetId="2" r:id="rId1"/>
@@ -8743,7 +8743,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9617,7 +9617,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -9658,7 +9658,7 @@
         <v>45962</v>
       </c>
       <c r="C2" s="5">
-        <v>45986</v>
+        <v>45992</v>
       </c>
       <c r="D2" t="s">
         <v>312</v>
@@ -9674,7 +9674,7 @@
       <c r="B3" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J/4YRHYncegF73eTchxAciT0tSbbSWj3boiegM17vUIEplkxtNLd1X4vb/W2yVmDOAkAexrF25JN3xRDYxNk8Q==" saltValue="48/gOxmmgMpvg8bA9+RwAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <sheetProtection autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/MasterLegalData.xlsx
+++ b/MasterLegalData.xlsx
@@ -2,13 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmat1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmat1/Desktop/1-Legal Work/Worldwide Equipment/App for State Laws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E49EC8-519C-1D42-81C6-37103D0972B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A697AA8-BBBF-DC4B-A635-E3DB08BB8D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="MZGtLTuiUGWUCkHPOZe8+zwTJ3zD0PJGjXgDa1kkgVQR2vk5LptDSAqD5xMZjx99fW/zGOo/7kcQsrT1k6oDiA==" workbookSaltValue="ConxlXExudvZ/ocL+LYw+g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20600" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6832,6 +6834,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FIrb5MxV3xgQmvkSXNO3auB4DY2whv+8nZuszEjEyDIT23i6lY5Vp2Gn6RKQtGNnXjvF5qeT2H7EgIuTW6v7Qw==" saltValue="v2xdHPuH4Ai8Kb2E0H14Tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:F2" numberStoredAsText="1"/>
@@ -7165,6 +7168,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="x31iKHdj1L/oGqYbEliU7zx9QmcUnv6KaxX7DkDSPdF32pahP6OhmiT/LAzGCn8q+qPTjcek5mGHEXL5M4yYRw==" saltValue="lT+wJTEug23X+mpJmCiVVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K1 A4:K5 A2 C2:E2 G2 I2:J2 A3:B3 E3 G3:I3 K3 A7:K9 A6:D6 F6:J6" numberStoredAsText="1"/>
@@ -7498,6 +7502,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="sBCbXzCUrCTsb+rbUjLMlxnhkfm0YqfVfvLLFuNczutPj82uJuRQrvjMOQE6WatVXuT1JR/06pO4rIIgI4f/WQ==" saltValue="W/JW5tXk63NF9NBUbf/ncw==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K1 A4:K5 A2:E2 G2:I2 K2 A3 C3 F3:K3 A7:K9 A6:C6 F6:G6 I6:K6" numberStoredAsText="1"/>
@@ -7831,6 +7836,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="te5hTR7rCox6RxSFQgKOeSpxe/IgyXF3mId7UDY7SJtjYqfqHHSaeXHy67/OsfuOY4FyMqso1fXCjLkMhE+tsA==" saltValue="ZFa8hPmTaAfdxjIkGA+lZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K2 A4:K5 A3:D3 F3:K3 A7:K9 A6:G6 I6:K6" numberStoredAsText="1"/>
@@ -7871,6 +7877,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="8mmbeCFpNyz8PbAjKsflPKFxjUre+MdkBczQQTZzNmI6eedJX0lUESuYABiOpy/NpBdhkISDfNeJ2UeZT2Og8Q==" saltValue="6bRAo/ZekB0cjjUhBdWyxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
@@ -8041,6 +8048,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FlZrI3bXtBJV2gXi1hoDTdfEirGVg3tZ2U4Gb7muifkzDsQihw0CQwx1RtyO93ZTgW2mvK26eM5GcZYPk8Tmow==" saltValue="dnmZ9D20PO6OFGrD83PxEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:D11" numberStoredAsText="1"/>
@@ -8237,6 +8245,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="SZN/TmDSrmWCcJv4aV8M4zDxxI+9xwIkdADapOuhcXciHggxJ9Nxg62qqCWIANFityGFsXIpN8AdvhsqMF6H8w==" saltValue="ultWaHLdHCjAhTCN/Vnpkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:F9" numberStoredAsText="1"/>
@@ -9273,6 +9282,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="hGzSoE+AcnP4FwKmZ/Mui2epL113ERfWY0B+PNfwLqAnLxbSjjmvYmqxUaDt+Bp1hnKl8xexWdBiQanZPFKPAA==" saltValue="QYzRVE5c0hz1OJAwTejBdA==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:F51" numberStoredAsText="1"/>
@@ -19627,6 +19637,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="kra17K3+tNvu4DQ6fuOnkqsl1DWYoLeTNDlQVGxSCX94PDT7z0faenjbFpQsFaCKTnkePj8IA1PGlTgHY0s0PQ==" saltValue="BYUAcnmIKT/3dP9FXTTOWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:J8 A10:J20 A9:B9 D9:J9 A22:J66 A21:D21 F21:J21 A68:J69 A67:D67 F67:J67 A71:J81 A70:D70 F70:J70 A83:J94 A82:D82 F82:J82 A96:J103 A95:D95 F95:J95 A105:J105 A104:D104 F104:J104 A107:J107 A106:D106 F106:J106 A109:J128 A108:D108 F108:J108 A132:J134 A129:D129 F129:J129 A130:D130 F130:J130 A131:C131 E131:J131 A136:J178 A135:B135 D135 F135:J135 A181:J190 A179:D179 F179:J179 A180:D180 F180:J180 A192:J195 A191:D191 F191:J191 A197:J199 A196:D196 F196:J196 A201:J215 A200:D200 F200:J200 A217:J232 A216:D216 F216:J216 A234:J235 A233:D233 F233:J233 A237:J251 A236:D236 F236:J236 A253:J266 A252:D252 F252:J252 A268:J276 A267:D267 F267:J267 A278:J279 A277:D277 F277:J277 A281:J283 A280:D280 F280:J280 A285:J307 A284:D284 F284:J284 A309:J323 A308:D308 F308:J308" numberStoredAsText="1"/>
@@ -19852,7 +19863,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -19958,6 +19969,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="OajnTx4aDVD4JULSa2tz+2prFcPNIxEgvePDkpEEtnj2DM336iA+wOTGb9tdXwWgENG0jzCjJMA2v0hVfTlfLg==" saltValue="96kCzYKjj4PSIaYMu9fjBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K1 A3:K6 A2:J2 A9:K9 A7:G7 I7:J7 A8:J8" numberStoredAsText="1"/>
@@ -20291,6 +20303,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="xjqdR489j1/wx3Murd4ae93nccvE81InjJOJb4ORJK8Yo8Wy3GBUIBiyLmJX9Dqn49c9PGGBMQY74WXdwCAiGw==" saltValue="12L993OHEbd1hJZ4QbvCOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K1 A4:K5 A2:E2 G2:K2 A3:B3 D3:I3 K3 A7:K9 A6:D6 G6 I6:K6" numberStoredAsText="1"/>
@@ -20378,7 +20391,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -20518,7 +20531,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -20624,6 +20637,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="XLXMRjxWqyqeQguU+25m3vs7eTyd35aGKsIPavp5FXKlVte8zyjcYCAqjIp8NeILzGWTrzeAwxw/8eDcjscCDw==" saltValue="DTJYncoUX7D6RLPXquhR1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K1 A4:K5 A2 C2:D2 F2:G2 I2:K2 A3 C3:D3 F3:H3 K3 A8:K9 A6:C6 G6 I6:K6 A7 C7:K7" numberStoredAsText="1"/>
@@ -20957,6 +20971,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="U4R/9BFplR9M0LYu0olg/uvXFamYh8Z9Qt1aisJlZjqbD3JY27+MZocBoMazwDj7ZM3BQxBfiMT8KcQS+IIB6g==" saltValue="84dSVtnNzgOdmEoUxLztDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:K1 A3:K5 A2:J2 A7:K9 A6:G6 I6:J6" numberStoredAsText="1"/>
